--- a/docs/base_restritos.xlsx
+++ b/docs/base_restritos.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Desktop\Analise_restritos\Analise_restritos\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F96E2F-8138-409E-81A0-7F335F93632B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="base_restritos"/>
+    <sheet name="base_restritos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="966">
   <si>
     <t>Razão Social</t>
   </si>
@@ -667,9 +678,6 @@
     <t>64.260.896/0001-20</t>
   </si>
   <si>
-    <t>RADIAL DISTRIBUICAO LTDA EM RECUPERACAO JUDICIAL</t>
-  </si>
-  <si>
     <t>CENTRO DE EDUCACAO E SAUDE COMUNITARIO CESAC</t>
   </si>
   <si>
@@ -904,12 +912,6 @@
     <t>14.310.577/0001-04</t>
   </si>
   <si>
-    <t>JOSE MARIA MAGALHAES DE AZEVEDO</t>
-  </si>
-  <si>
-    <t>TELMO TONOLLI</t>
-  </si>
-  <si>
     <t>BOMBRIL</t>
   </si>
   <si>
@@ -1054,15 +1056,6 @@
     <t>CARLOS MANOEL POLITANO LARANGEIRA</t>
   </si>
   <si>
-    <t>CESAR DE ARAUJO MATA PIRES</t>
-  </si>
-  <si>
-    <t>GERALDO CORREIA SANTOS</t>
-  </si>
-  <si>
-    <t>HENRIQUE MARTINEZ ANDION</t>
-  </si>
-  <si>
     <t>PETROPOLIS HOLDING</t>
   </si>
   <si>
@@ -1180,9 +1173,6 @@
     <t>14.983.441/0001-65</t>
   </si>
   <si>
-    <t>ONIX PARTICIPACAO</t>
-  </si>
-  <si>
     <t>RIANZI GUERRA SOARES</t>
   </si>
   <si>
@@ -1775,13 +1765,1170 @@
   </si>
   <si>
     <t>93.831.832/0001-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ITALMA HOLDING</t>
+  </si>
+  <si>
+    <t>15.433.283/0001-32</t>
+  </si>
+  <si>
+    <t>5 ESTRELAS SPECIAL SERVICE NORTE NORDESTE SERVICOS DE LIMPEZA</t>
+  </si>
+  <si>
+    <t>11.312.620/0001-82</t>
+  </si>
+  <si>
+    <t>A ERA DIGITAL COMERCIO E SERVICOS EIRELI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.529.276/0001-36 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABF ENGENHARIA SERVICOS E COMERCIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">00.376.507/0001-44 </t>
+  </si>
+  <si>
+    <t>AEROPARK SERVICOS</t>
+  </si>
+  <si>
+    <t>01.568.515/0001-55</t>
+  </si>
+  <si>
+    <t>AGAPE CONSTRUCOES E SERVICOS</t>
+  </si>
+  <si>
+    <t>07.990.965/0001-18</t>
+  </si>
+  <si>
+    <t>ALARTEGS SISTEMAS DE SEGURANCA E SERVICOS</t>
+  </si>
+  <si>
+    <t>20.541.692/0001-92</t>
+  </si>
+  <si>
+    <t>ALEX GUTIERREZ TORRES, THOR PRESTADORA DE SERVICOS E SEGURANCA EIRELI</t>
+  </si>
+  <si>
+    <t>16.905.404/0001-64</t>
+  </si>
+  <si>
+    <t>ALP AERO TAXI</t>
+  </si>
+  <si>
+    <t>08.887.145/0001-68</t>
+  </si>
+  <si>
+    <t>ALVARO DA SILVA CRISTINA &amp; FILHOS</t>
+  </si>
+  <si>
+    <t>05.010.431/0001-52</t>
+  </si>
+  <si>
+    <t>AMBAR SERVICOS AUXILIARES DE TRANSPORTE AEREO</t>
+  </si>
+  <si>
+    <t>19.046.364/0001-30</t>
+  </si>
+  <si>
+    <t>ARTECOLA QUIMICA EM RECUPERACAO JUDICIAL</t>
+  </si>
+  <si>
+    <t>44.699.346/0001-03</t>
+  </si>
+  <si>
+    <t>ARTHUR LUNDGREN TECIDOS CASAS PERNAMBUCANAS</t>
+  </si>
+  <si>
+    <t>61.099.834/0001-90</t>
+  </si>
+  <si>
+    <t>ASSOC BRASILEIRA DE CONCESSIONARIAS DE RODOVIAS ABCR</t>
+  </si>
+  <si>
+    <t>01.435.491/0001-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSOC EDUC DAS IGREJAS EV ASSEMBL DE DEUS NO EST DO PAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.387.363/0001-56   </t>
+  </si>
+  <si>
+    <t>ASSOCIACAO CULTURA INGLESA SAO PAULO</t>
+  </si>
+  <si>
+    <t>61.793.907/0001-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSOCIACAO DE ENSINO SUPERIOR DE CAMPO GRANDE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.026.658/0001-59  </t>
+  </si>
+  <si>
+    <t>ASSOCIACAO EVANGELICA BENEFICENTE ESPIRITOSANTENSE AEBES</t>
+  </si>
+  <si>
+    <t>28.127.926/0001-61</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO UNIVERSITARIA SANTA URSULA</t>
+  </si>
+  <si>
+    <t>33.479.965/0001-68</t>
+  </si>
+  <si>
+    <t>ATIVA TERCEIRIZACAO DE MAO DE OBRA EIRELI</t>
+  </si>
+  <si>
+    <t>02.201.230/0001-44</t>
+  </si>
+  <si>
+    <t>AVON COSMETICOS</t>
+  </si>
+  <si>
+    <t>56.991.441/0001-57</t>
+  </si>
+  <si>
+    <t>AZUL LINHAS AEREAS BRASILEIRAS</t>
+  </si>
+  <si>
+    <t>09.296.295/0001-60</t>
+  </si>
+  <si>
+    <t>BA MEIO AMBIENTE LTDA EM RECUPERACAO JUDICIAL</t>
+  </si>
+  <si>
+    <t>07.593.016/0001-02</t>
+  </si>
+  <si>
+    <t>BACKSTAGE ORGANIZACAO DE EVENTOS EIRELI</t>
+  </si>
+  <si>
+    <t>22.150.816/0001-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANCO ORIGINAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.894.922/0001-08 </t>
+  </si>
+  <si>
+    <t>BBM LOGISTICA</t>
+  </si>
+  <si>
+    <t>01.107.327/0001-20</t>
+  </si>
+  <si>
+    <t>BOMBRIL EM RECUPERACAO JUDICIAL</t>
+  </si>
+  <si>
+    <t>BOMPRECO BAHIA SUPERMERCADOS</t>
+  </si>
+  <si>
+    <t>97.422.620/0001-50</t>
+  </si>
+  <si>
+    <t>BOMPRECO DO BRASIL PARTICIPACOES</t>
+  </si>
+  <si>
+    <t>30.621.687/0001-43</t>
+  </si>
+  <si>
+    <t>BP GESTAO E RECUPERACAO DE ATIVOS</t>
+  </si>
+  <si>
+    <t>13.600.461/0001-47</t>
+  </si>
+  <si>
+    <t>BRASKEM</t>
+  </si>
+  <si>
+    <t>42.150.391/0001-70</t>
+  </si>
+  <si>
+    <t>BV TRANSPORTES</t>
+  </si>
+  <si>
+    <t>06.292.694/0001-64</t>
+  </si>
+  <si>
+    <t>CAFE EXPRESSO SERVICOS DE TERCEIRIZACAO DE MAO DE OBRA</t>
+  </si>
+  <si>
+    <t>06.349.679/0001-05</t>
+  </si>
+  <si>
+    <t>CASTERTECH FUNDICAO E TECNOLOGIA</t>
+  </si>
+  <si>
+    <t>08.304.706/0001-59</t>
+  </si>
+  <si>
+    <t>CENTRO DE ENSINO SUPERIOR UNIAO DAS INSTITUICOES DE ENSINO DO BRASIL UIEB</t>
+  </si>
+  <si>
+    <t>14.651.542/0001-39</t>
+  </si>
+  <si>
+    <t>CENTRO DE ESTUDOS SUPERIORES PLANALTO</t>
+  </si>
+  <si>
+    <t>00.697.649/0001-03</t>
+  </si>
+  <si>
+    <t>CERVEJARIA PETROPOLIS</t>
+  </si>
+  <si>
+    <t>73.410.326/0001-60</t>
+  </si>
+  <si>
+    <t>CLINSUL MAO DE OBRA E REPRESENTACAO</t>
+  </si>
+  <si>
+    <t>72.173.164/0001-21</t>
+  </si>
+  <si>
+    <t>COMERCIAL CARBALLO &amp; FERREIRA</t>
+  </si>
+  <si>
+    <t>22.103.450/0001-42</t>
+  </si>
+  <si>
+    <t>COMPANHIA SULAMERICANA DE DISTRIBUICAO</t>
+  </si>
+  <si>
+    <t>11.517.841/0001-97</t>
+  </si>
+  <si>
+    <t>CONSERVO SERVICOS GERAIS</t>
+  </si>
+  <si>
+    <t>17.027.806/0001-76</t>
+  </si>
+  <si>
+    <t>CONSTRUTORA QUEIROZ GALVAO</t>
+  </si>
+  <si>
+    <t>33.412.792/0001-60</t>
+  </si>
+  <si>
+    <t>COOPERATIVA DE TRABALHO RIOGRANDENSE</t>
+  </si>
+  <si>
+    <t>02.571.188/0001-53</t>
+  </si>
+  <si>
+    <t>CRIA SIM PRODUTOS DE HIGIENE</t>
+  </si>
+  <si>
+    <t>05.975.111/0001-37</t>
+  </si>
+  <si>
+    <t>CSN TRANSPORTES URBANOS SPE</t>
+  </si>
+  <si>
+    <t>21.162.522/0001-60</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO MUNICIPAL DE LIMPEZA URBANA</t>
+  </si>
+  <si>
+    <t>88.017.272/0001-45</t>
+  </si>
+  <si>
+    <t>DINAMO ENGENHARIA</t>
+  </si>
+  <si>
+    <t>35.099.027/0001-68</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDORA DE BEBIDAS GLP SATURNINO</t>
+  </si>
+  <si>
+    <t>30.161.752/0001-03</t>
+  </si>
+  <si>
+    <t>DW TRANSPORTES E LOGISTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.311.587/0001-05 </t>
+  </si>
+  <si>
+    <t>EDITORA E DISTRIBUIDORA EDUCACIONAL</t>
+  </si>
+  <si>
+    <t>38.733.648/0001-40</t>
+  </si>
+  <si>
+    <t>EDUARDO GIANELLO, GNLO MARKETING EIRELI</t>
+  </si>
+  <si>
+    <t>17.434.576/0001-60</t>
+  </si>
+  <si>
+    <t>ELFE OPERACAO E MANUTENCAO</t>
+  </si>
+  <si>
+    <t>97.428.668/0001-76</t>
+  </si>
+  <si>
+    <t>EMBRASIL EMPRESA BRASILEIRA DE SEGURANCA</t>
+  </si>
+  <si>
+    <t>02.426.907/0001-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMERITUS INSTRUMENTACAO E AUTOMACAO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.621.729/0001-15 </t>
+  </si>
+  <si>
+    <t>EMPREENDIMENTOS PAGUE MENOS</t>
+  </si>
+  <si>
+    <t>06.626.253/0001-51</t>
+  </si>
+  <si>
+    <t>EMPRESA BAIANA DE AGUAS E SANEAMENTO</t>
+  </si>
+  <si>
+    <t>13.504.675/0001-10</t>
+  </si>
+  <si>
+    <t>EMPRESA BRASILEIRA DE ESQUADRIAS EIRELI</t>
+  </si>
+  <si>
+    <t>59.691.907/0001-97</t>
+  </si>
+  <si>
+    <t>EMPRESA BRASILEIRA DE SERVICOS HOSPITALARES EBSERH</t>
+  </si>
+  <si>
+    <t>15.126.437/0001-43</t>
+  </si>
+  <si>
+    <t>EMPRESA DE TRENS URBANOS DE PORTO ALEGRE TRENSURB</t>
+  </si>
+  <si>
+    <t>90.976.853/0001-56</t>
+  </si>
+  <si>
+    <t>EMPRESA GONTIJO DE TRANSPORTES LIMITADA</t>
+  </si>
+  <si>
+    <t>16.624.611/0001-40</t>
+  </si>
+  <si>
+    <t>ENGESEG EMPRESA DE VIGILANCIA COMPUTADORIZADA</t>
+  </si>
+  <si>
+    <t>64.545.866/0001-60</t>
+  </si>
+  <si>
+    <t>ENGESEG, SECON SERVICOS GERAIS</t>
+  </si>
+  <si>
+    <t>01.560.284/0001-33</t>
+  </si>
+  <si>
+    <t>ESPECIALY TERCEIRIZACAO EIRELI</t>
+  </si>
+  <si>
+    <t>20.522.050/0001-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESQUADRA PARTICIPACOES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.217.243/0001-03 </t>
+  </si>
+  <si>
+    <t>ESQUADRA TRANSPORTE DE VALORES &amp; SEGURANCA</t>
+  </si>
+  <si>
+    <t>07.705.117/0001-10</t>
+  </si>
+  <si>
+    <t>ESTADO DO PARANA</t>
+  </si>
+  <si>
+    <t>76.416.940/0001-28</t>
+  </si>
+  <si>
+    <t>ESTALEIRO DE CONSTRUCOES E REPAROS NAVAIS VITORIA</t>
+  </si>
+  <si>
+    <t>07.089.689/0001-11</t>
+  </si>
+  <si>
+    <t>EVANGELICO SAUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.989.632/0001-55 </t>
+  </si>
+  <si>
+    <t>EXPANSAO BRASIL SERVICOS PARA TELEFONIA</t>
+  </si>
+  <si>
+    <t>12.071.719/0001-00</t>
+  </si>
+  <si>
+    <t>FAST SHOP</t>
+  </si>
+  <si>
+    <t>43.708.379/0001-00</t>
+  </si>
+  <si>
+    <t>FIBRAPLAC PAINEIS DE MADEIRA</t>
+  </si>
+  <si>
+    <t>04.176.791/0001-66</t>
+  </si>
+  <si>
+    <t>FREDERICO ANTONIO TAYLOR CARDOSO GESTAO COMERCIAL</t>
+  </si>
+  <si>
+    <t>14.290.200/0001-30</t>
+  </si>
+  <si>
+    <t>FUCAPI FUND CENTRO DE ANALISE PESQ E INOV TECNOLOGICA</t>
+  </si>
+  <si>
+    <t>04.153.540/0001-66</t>
+  </si>
+  <si>
+    <t>FUNDACAO DE SAUDE PUBLICA DE NOVO HAMBURGO FSNH</t>
+  </si>
+  <si>
+    <t>11.055.682/0001-56</t>
+  </si>
+  <si>
+    <t>FUNDACAO DO ABC</t>
+  </si>
+  <si>
+    <t>57.571.275/0001-00</t>
+  </si>
+  <si>
+    <t>FUNDACAO ESTATAL DE ATENCAO A SAUDE FEAS</t>
+  </si>
+  <si>
+    <t>14.814.139/0001-83</t>
+  </si>
+  <si>
+    <t>FUNDACAO UNIVERSITARIA DE CARDIOLOGIA</t>
+  </si>
+  <si>
+    <t>92.898.550/0001-98</t>
+  </si>
+  <si>
+    <t>GATRON INOVACAO EM COMPOSITOS</t>
+  </si>
+  <si>
+    <t>81.424.962/0001-70</t>
+  </si>
+  <si>
+    <t>GLOBAL DISTRIBUICAO DE BENS DE CONSUMO</t>
+  </si>
+  <si>
+    <t>89.237.911/0001-40</t>
+  </si>
+  <si>
+    <t>GOL LINHAS AEREAS</t>
+  </si>
+  <si>
+    <t>07.575.651/0001-59</t>
+  </si>
+  <si>
+    <t>GPS PREDIAL SISTEMAS DE SEGURANCA</t>
+  </si>
+  <si>
+    <t>02.817.114/0001-54</t>
+  </si>
+  <si>
+    <t>GRUPO BIG BRASIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSI SERVICOS ESPECIALIZADOS </t>
+  </si>
+  <si>
+    <t>09.370.244/0001-30</t>
+  </si>
+  <si>
+    <t>HOSPITAL SANTA CRUZ SOCIEDADE ANONIMA</t>
+  </si>
+  <si>
+    <t>76.555.069/0001-43</t>
+  </si>
+  <si>
+    <t>HOTELARIA ACCOR BRASIL</t>
+  </si>
+  <si>
+    <t>09.967.852/0001-27</t>
+  </si>
+  <si>
+    <t>ICATELTELEMATICA SERVICOS E COMERCIO</t>
+  </si>
+  <si>
+    <t>04.163.433/0001-19</t>
+  </si>
+  <si>
+    <t>IGREJA EVANGELICA ASSEMBLEIA DE DEUS EM CURITIBA</t>
+  </si>
+  <si>
+    <t>75.034.645/0001-44</t>
+  </si>
+  <si>
+    <t>IN FLIGHT SOLUTIONS BRASIL PARTICIPACOES E SERVICOS AUXILIARES DE TRANSPORTE AEREO</t>
+  </si>
+  <si>
+    <t>24.691.482/0001-31</t>
+  </si>
+  <si>
+    <t>INSTITUTO CHICO MENDES DE CONSERVACAO DA BIODIVERSIDADE</t>
+  </si>
+  <si>
+    <t>08.829.974/0001-94</t>
+  </si>
+  <si>
+    <t>INSTITUTO NACIONAL DE DESENVOLVIMENTO SOCIAL E HUMANO INDSH</t>
+  </si>
+  <si>
+    <t>23.453.830/0001-70</t>
+  </si>
+  <si>
+    <t>INSTITUTO PORTO ALEGRE DA IGREJA METODISTA</t>
+  </si>
+  <si>
+    <t>93.005.494/0001-88</t>
+  </si>
+  <si>
+    <t>INTERTRANSMAR DO NORDESTE</t>
+  </si>
+  <si>
+    <t>03.792.057/0001-69</t>
+  </si>
+  <si>
+    <t>IRMANDADE DA STA CASA DE MIS N S ROSARIO DE COLOMBO</t>
+  </si>
+  <si>
+    <t>76.212.265/0001-15</t>
+  </si>
+  <si>
+    <t>ISDRA PARTICIPACOES E INVESTIMENTOS</t>
+  </si>
+  <si>
+    <t>88.700.968/0001-71</t>
+  </si>
+  <si>
+    <t>ISDRALIT INDUSTRIA E COMERCIO LTDA GRUPO ISDRA</t>
+  </si>
+  <si>
+    <t>89.938.500/0001-82</t>
+  </si>
+  <si>
+    <t>JOB SEGURANCA E VIGILANCIA PATRIMONIAL</t>
+  </si>
+  <si>
+    <t>08.938.288/0001-51</t>
+  </si>
+  <si>
+    <t>JORCAL ELEMENTOS METALICOS</t>
+  </si>
+  <si>
+    <t>04.207.677/0001-56</t>
+  </si>
+  <si>
+    <t>L S MUSIC PRODUCOES ARTISTICAS EIRELI</t>
+  </si>
+  <si>
+    <t>11.136.197/0001-07</t>
+  </si>
+  <si>
+    <t>LIDER SERVICOS GERAIS</t>
+  </si>
+  <si>
+    <t>23.211.179/0001-21</t>
+  </si>
+  <si>
+    <t>LOGIC SOLUCOES LOGISTICAS</t>
+  </si>
+  <si>
+    <t>15.101.228/0001-45</t>
+  </si>
+  <si>
+    <t>LOJAS AMERICANAS</t>
+  </si>
+  <si>
+    <t>33.014.556/0001-96</t>
+  </si>
+  <si>
+    <t>MA KALIL COMERCIO DE CALCADOS</t>
+  </si>
+  <si>
+    <t>02.179.960/0001-96</t>
+  </si>
+  <si>
+    <t>MAGALU LOG SERVICOS LOGISTICOS</t>
+  </si>
+  <si>
+    <t>MAIS EMPRESARIAL EIRELI</t>
+  </si>
+  <si>
+    <t>08.727.098/0001-95</t>
+  </si>
+  <si>
+    <t>MASSA FALIDA DE DARUMA TELECOMUNICACOES E INFORMATICA</t>
+  </si>
+  <si>
+    <t>45.170.289/0001-25</t>
+  </si>
+  <si>
+    <t>MASTER TRANSPORTES E LOGISTICA</t>
+  </si>
+  <si>
+    <t>36.313.328/0001-05</t>
+  </si>
+  <si>
+    <t>MEDICAMENTAL DISTRIBUIDORA</t>
+  </si>
+  <si>
+    <t>08.618.022/0001-21</t>
+  </si>
+  <si>
+    <t>MEGA PACK PLASTICOS</t>
+  </si>
+  <si>
+    <t>19.631.376/0001-22</t>
+  </si>
+  <si>
+    <t>MG TERCEIRIZACAO DE SERVICOS</t>
+  </si>
+  <si>
+    <t>01.278.154/0001-02</t>
+  </si>
+  <si>
+    <t>MINERACAO TABOCA</t>
+  </si>
+  <si>
+    <t>34.019.992/0001-10</t>
+  </si>
+  <si>
+    <t>MLRA BAR E RESTAURANTE</t>
+  </si>
+  <si>
+    <t>33.972.398/0001-87</t>
+  </si>
+  <si>
+    <t>MM APOIO ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>08.930.113/0001-06</t>
+  </si>
+  <si>
+    <t>MONDELEZ BRASIL</t>
+  </si>
+  <si>
+    <t>33.033.028/0044-14</t>
+  </si>
+  <si>
+    <t>MONITORE SEGURANCA PATRIMONIAL EIRELI EM RECUPERACAO JUDICIAL</t>
+  </si>
+  <si>
+    <t>05.014.372/0001-90</t>
+  </si>
+  <si>
+    <t>MOTTU LOCACAO DE VEICULOS</t>
+  </si>
+  <si>
+    <t>35.237.331/0001-24</t>
+  </si>
+  <si>
+    <t>MULTIPLA AIR MANUTENCAO VERTICAL SERVICOS E OBRAS EIRELI</t>
+  </si>
+  <si>
+    <t>27.339.781/0001-08</t>
+  </si>
+  <si>
+    <t>MUNICIPIO DE CURITIBA</t>
+  </si>
+  <si>
+    <t>76.417.005/0001-86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUNICIPIO DE MESQUITA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04.132.090/0001-25 </t>
+  </si>
+  <si>
+    <t>MUNICIPIO DE PASSO FUNDO</t>
+  </si>
+  <si>
+    <t>87.612.537/0001-90</t>
+  </si>
+  <si>
+    <t>MUNICIPIO DE PORTO ALEGRE</t>
+  </si>
+  <si>
+    <t>92.963.560/0001-60</t>
+  </si>
+  <si>
+    <t>MV INFRA ALUGUEL DE MAQUINAS E EQUIPAMENTOS PARA CONSTRUCAO</t>
+  </si>
+  <si>
+    <t>17.236.748/0001-90</t>
+  </si>
+  <si>
+    <t>NASSAU EDITORA RADIO E TV</t>
+  </si>
+  <si>
+    <t>27.065.150/0001-30</t>
+  </si>
+  <si>
+    <t>NVH TERCEIRIZACAO DE SERVICOS</t>
+  </si>
+  <si>
+    <t>07.253.582/0001-67</t>
+  </si>
+  <si>
+    <t>OCEANAIR LINHAS AEREA SA FALIDO EM RECUPERACAO JUDICIAL</t>
+  </si>
+  <si>
+    <t>OCEANIC CONSULTORIA E GESTAO COMERCIAL EIRELI</t>
+  </si>
+  <si>
+    <t>76.535.764/0325-09</t>
+  </si>
+  <si>
+    <t>76.535.764/0324-28</t>
+  </si>
+  <si>
+    <t>OTD BRASIL LOGISTICA</t>
+  </si>
+  <si>
+    <t>07.579.025/0001-30</t>
+  </si>
+  <si>
+    <t>PANSERV PRESTADORA DE SERVICOS</t>
+  </si>
+  <si>
+    <t>13.258.615/0001-64</t>
+  </si>
+  <si>
+    <t>PANTANEIRO INDUSTRIA E COMERCIO DE CAPAS EIRELI</t>
+  </si>
+  <si>
+    <t>07.420.173/0001-08</t>
+  </si>
+  <si>
+    <t>PASSAREDO TRANSPORTES AEREOS</t>
+  </si>
+  <si>
+    <t>00.512.777/0001-35</t>
+  </si>
+  <si>
+    <t>PAULA DUTRA PEREIRA, PEREIRA NEGOCIOS ALIMENTICIOS EIRELI</t>
+  </si>
+  <si>
+    <t>08.701.789/0001-10</t>
+  </si>
+  <si>
+    <t>PEDRALLI &amp; PEDRALLI SUPERMERCADO</t>
+  </si>
+  <si>
+    <t>05.956.109/0001-10</t>
+  </si>
+  <si>
+    <t>PEDRO HENRIQUE TORRES BIANCHI, RN COMERCIO VAREJISTA</t>
+  </si>
+  <si>
+    <t>PEREIRA NEGOCIOS ALIMENTICIOS EIRELI</t>
+  </si>
+  <si>
+    <t>PERNAMBUCANAS FINANCIADORA CRED FIN E INVESTIMENTO</t>
+  </si>
+  <si>
+    <t>43.180.355/0001-12</t>
+  </si>
+  <si>
+    <t>PLUS ENGENHARIA</t>
+  </si>
+  <si>
+    <t>93.585.966/0001-19</t>
+  </si>
+  <si>
+    <t>POP TRADE MARKETING E CONSULTORIA</t>
+  </si>
+  <si>
+    <t>07.272.350/0001-56</t>
+  </si>
+  <si>
+    <t>PR FACILITIES SERVICE EIRELI, SIMONE PORFIRIO DA ROCHA</t>
+  </si>
+  <si>
+    <t>27.820.770/0001-37</t>
+  </si>
+  <si>
+    <t>PRECOLANDIA COMERCIAL</t>
+  </si>
+  <si>
+    <t>62.270.186/0001-56</t>
+  </si>
+  <si>
+    <t>PRO SAUDE ASSOCIACAO BENEFICENTE DE ASSISTENCIA SOCIAL E HOSPITALAR</t>
+  </si>
+  <si>
+    <t>24.232.886/0001-67</t>
+  </si>
+  <si>
+    <t>PROFORTE TRANSPORTE DE VALORES</t>
+  </si>
+  <si>
+    <t>00.116.506/0001-60</t>
+  </si>
+  <si>
+    <t>PROMIL PROMOTORA DE VENDAS</t>
+  </si>
+  <si>
+    <t>09.093.910/0001-30</t>
+  </si>
+  <si>
+    <t>PROTELIMP SERVICOS DE PORTARIA LIMPEZA E MAODEOBRA TERCEIRIZADOS EIRELI</t>
+  </si>
+  <si>
+    <t>RAMOS + SILVA SOLUCOES FINANCEIRAS</t>
+  </si>
+  <si>
+    <t>07.625.729/0001-00</t>
+  </si>
+  <si>
+    <t>RAPIDO TRANSPAULO</t>
+  </si>
+  <si>
+    <t>88.317.847/0001-45</t>
+  </si>
+  <si>
+    <t>REALIZE CREDITO FINANCIAMENTO E INVESTIMENTO</t>
+  </si>
+  <si>
+    <t>27.351.731/0001-38</t>
+  </si>
+  <si>
+    <t>REDE DE DISTRIBUICAO ZEFERINO</t>
+  </si>
+  <si>
+    <t>67.228.536/0001-30</t>
+  </si>
+  <si>
+    <t>REDEBRASIL GESTAO DE ATIVOS</t>
+  </si>
+  <si>
+    <t>03.681.777/0001-57</t>
+  </si>
+  <si>
+    <t>RENACOOP RENASCER COOPERATIVA DE TRABALHO</t>
+  </si>
+  <si>
+    <t>04.920.616/0001-31</t>
+  </si>
+  <si>
+    <t>RESIPLAN SERVICOS GERAIS</t>
+  </si>
+  <si>
+    <t>08.650.787/0001-49</t>
+  </si>
+  <si>
+    <t>RIBEIRO E TORRES</t>
+  </si>
+  <si>
+    <t>07.440.140/0001-20</t>
+  </si>
+  <si>
+    <t>RICLAN</t>
+  </si>
+  <si>
+    <t>56.370.364/0001-18</t>
+  </si>
+  <si>
+    <t>RIO BRANCO ALIMENTOS</t>
+  </si>
+  <si>
+    <t>05.017.780/0001-04</t>
+  </si>
+  <si>
+    <t>RJ ENGENHARIA E COMERCIO</t>
+  </si>
+  <si>
+    <t>01.365.749/0001-03</t>
+  </si>
+  <si>
+    <t>ROUTE SERVICOS DE TELECOMUNICACAO</t>
+  </si>
+  <si>
+    <t>21.502.908/0001-73</t>
+  </si>
+  <si>
+    <t>RR DONNELLEY EDITORA E GRAFICA</t>
+  </si>
+  <si>
+    <t>62.004.395/0001-58</t>
+  </si>
+  <si>
+    <t>SDB COMERCIO DE ALIMENTOS</t>
+  </si>
+  <si>
+    <t>09.477.652/0001-96</t>
+  </si>
+  <si>
+    <t>09.477.652/0007-81</t>
+  </si>
+  <si>
+    <t>SEARA ALIMENTOS</t>
+  </si>
+  <si>
+    <t>02.914.460/0001-50</t>
+  </si>
+  <si>
+    <t>02.914.460/0144-53</t>
+  </si>
+  <si>
+    <t>SEC NETWORK INSTRUMENTACAO E AUTOMACAO</t>
+  </si>
+  <si>
+    <t>10.521.659/0001-47</t>
+  </si>
+  <si>
+    <t>SELTEC VIGILANCIA ESPECIALIZADA</t>
+  </si>
+  <si>
+    <t>92.653.666/0001-67</t>
+  </si>
+  <si>
+    <t>SENIO TRANSPORTE DE CARGAS RODOVIARIAS</t>
+  </si>
+  <si>
+    <t>00.130.097/0001-57</t>
+  </si>
+  <si>
+    <t>SEQUOIA LOGISTICA E TRANSPORTES</t>
+  </si>
+  <si>
+    <t>01.599.101/0001-93</t>
+  </si>
+  <si>
+    <t>SERVIZA SERVICOS</t>
+  </si>
+  <si>
+    <t>07.709.236/0001-40</t>
+  </si>
+  <si>
+    <t>SINTRAX CONSTRUCOES</t>
+  </si>
+  <si>
+    <t>18.259.683/0001-61</t>
+  </si>
+  <si>
+    <t>SITIO DOS LAGOS EMPREENDIMENTOS</t>
+  </si>
+  <si>
+    <t>21.024.900/0001-49</t>
+  </si>
+  <si>
+    <t>SOCIEDADE EDUCACIONAL SULRIOGRANDENSE</t>
+  </si>
+  <si>
+    <t>92.915.636/0001-81</t>
+  </si>
+  <si>
+    <t>SOCIEDADE EVANGELICA BENEFICENTE DE CURITIBA</t>
+  </si>
+  <si>
+    <t>76.575.604/0001-28</t>
+  </si>
+  <si>
+    <t>SPRINK SEGURANCA CONTRA INCENDIO</t>
+  </si>
+  <si>
+    <t>42.515.478/0001-02</t>
+  </si>
+  <si>
+    <t>SUMICITY TELECOMUNICACOES</t>
+  </si>
+  <si>
+    <t>07.714.104/0001-07</t>
+  </si>
+  <si>
+    <t>SUPRICEL LOGISTICA</t>
+  </si>
+  <si>
+    <t>03.077.452/0001-60</t>
+  </si>
+  <si>
+    <t>TECHCASA INCORPORACAO E CONSTRUCAO</t>
+  </si>
+  <si>
+    <t>03.439.355/0001-70</t>
+  </si>
+  <si>
+    <t>TERSERV PRESTACAO DE SERVICOS DE APOIO E LIMPEZA EIRELI</t>
+  </si>
+  <si>
+    <t>27.429.177/0001-64</t>
+  </si>
+  <si>
+    <t>THERMOTEC AR CONDICIONADO E MANUTENCOES EIRELI</t>
+  </si>
+  <si>
+    <t>05.110.144/0001-14</t>
+  </si>
+  <si>
+    <t>THOR PRESTADORA DE SERVICOS E SEGURANCA EIRELI</t>
+  </si>
+  <si>
+    <t>TNG COMERCIO DE ROUPAS</t>
+  </si>
+  <si>
+    <t>53.966.834/0001-12</t>
+  </si>
+  <si>
+    <t>TRANSPORTADORA AMERICANA</t>
+  </si>
+  <si>
+    <t>43.244.631/0001-69</t>
+  </si>
+  <si>
+    <t>TRANSPORTADORA COLATINENSE</t>
+  </si>
+  <si>
+    <t>33.530.734/0001-31</t>
+  </si>
+  <si>
+    <t>TRANSPORTADORA PIGATTO EIRELI</t>
+  </si>
+  <si>
+    <t>93.653.830/0001-07</t>
+  </si>
+  <si>
+    <t>TRANSPORTADORA RADKE LTDA M E</t>
+  </si>
+  <si>
+    <t>90.605.346/0001-06</t>
+  </si>
+  <si>
+    <t>TRANSPORTES TRANSLOVATO</t>
+  </si>
+  <si>
+    <t>89.823.918/0001-44</t>
+  </si>
+  <si>
+    <t>TRANSPORTES VILA RICA LTDA M E</t>
+  </si>
+  <si>
+    <t>94.136.801/0001-22</t>
+  </si>
+  <si>
+    <t>TROJAHNTOPPEL SERVICOS</t>
+  </si>
+  <si>
+    <t>10.594.346/0001-19</t>
+  </si>
+  <si>
+    <t>UNESUL DE TRANSPORTES</t>
+  </si>
+  <si>
+    <t>92.667.948/0001-13</t>
+  </si>
+  <si>
+    <t>UNIMED DE MANAUS EMPREENDIMENTOS</t>
+  </si>
+  <si>
+    <t>23.732.890/0001-21</t>
+  </si>
+  <si>
+    <t>V N MACHADO DI TILIA COMERCIO DE ALIMENTOS</t>
+  </si>
+  <si>
+    <t>11.010.376/0001-01</t>
+  </si>
+  <si>
+    <t>VIA VAREJO</t>
+  </si>
+  <si>
+    <t>33.041.260/0001-64</t>
+  </si>
+  <si>
+    <t>33.041.260/0784-30</t>
+  </si>
+  <si>
+    <t>VIACAO GRANDE VITORIA</t>
+  </si>
+  <si>
+    <t>28.126.720/0001-17</t>
+  </si>
+  <si>
+    <t>VIT SERVICOS AUXILIARES DE TRANSPORTES AEREOS</t>
+  </si>
+  <si>
+    <t>00.965.403/0001-75</t>
+  </si>
+  <si>
+    <t>WHB AUTOMOTIVE EM RECUPERACAO JUDICIAL</t>
+  </si>
+  <si>
+    <t>01.261.681/0001-04</t>
+  </si>
+  <si>
+    <t>WMB SUPERMERCADOS DO BRASIL</t>
+  </si>
+  <si>
+    <t>WW&amp;I COMERCIO E SERVICOS</t>
+  </si>
+  <si>
+    <t>13.994.365/0001-20</t>
+  </si>
+  <si>
+    <t>YC SERVICOS</t>
+  </si>
+  <si>
+    <t>29.299.347/0001-69</t>
+  </si>
+  <si>
+    <t>YC SERVICOS, YURI FERREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>YELLOW MOUNTAIN DISTRIBUIDORA DE VEICULOS</t>
+  </si>
+  <si>
+    <t>29.402.622/0001-28</t>
+  </si>
+  <si>
+    <t>YOKI DISTRIBUIDORA DE ALIMENTOS</t>
+  </si>
+  <si>
+    <t>13.143.802/0001-00</t>
+  </si>
+  <si>
+    <t>ZANC ASSESSORIA NACIONAL DE COBRANCA</t>
+  </si>
+  <si>
+    <t>04.820.805/0001-32</t>
+  </si>
+  <si>
+    <t>ZANC TELEATENDIMENTO E RECUPERACAO DE CREDITO</t>
+  </si>
+  <si>
+    <t>89.539.977/0001-95</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1812,22 +2959,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1838,10 +2984,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -1879,71 +3025,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1971,7 +3117,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1994,11 +3140,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -2007,13 +3153,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2023,7 +3169,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2032,7 +3178,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2041,7 +3187,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2049,10 +3195,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -2117,21 +3263,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B347"/>
+  <dimension ref="A1:B602"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
+      <selection activeCell="B606" sqref="B606"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="32.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="86" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2139,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2147,7 +3295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2155,7 +3303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2163,7 +3311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2171,7 +3319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2179,7 +3327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2187,7 +3335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2195,7 +3343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2203,7 +3351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -2211,7 +3359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -2219,7 +3367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -2227,7 +3375,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -2235,7 +3383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2243,7 +3391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -2251,7 +3399,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -2259,7 +3407,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -2267,7 +3415,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -2275,7 +3423,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -2283,7 +3431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -2291,7 +3439,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -2299,7 +3447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -2307,7 +3455,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -2315,7 +3463,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -2323,7 +3471,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -2331,7 +3479,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -2339,7 +3487,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -2347,7 +3495,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -2355,7 +3503,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
@@ -2363,7 +3511,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -2371,7 +3519,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -2379,7 +3527,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
@@ -2387,7 +3535,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
@@ -2395,7 +3543,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -2403,7 +3551,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -2411,7 +3559,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
@@ -2419,7 +3567,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
@@ -2427,7 +3575,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
@@ -2435,7 +3583,7 @@
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
@@ -2443,7 +3591,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
@@ -2451,7 +3599,7 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>73</v>
       </c>
@@ -2459,7 +3607,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>75</v>
       </c>
@@ -2467,7 +3615,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>77</v>
       </c>
@@ -2475,7 +3623,7 @@
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
@@ -2483,7 +3631,7 @@
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
@@ -2491,7 +3639,7 @@
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>82</v>
       </c>
@@ -2499,7 +3647,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>84</v>
       </c>
@@ -2507,7 +3655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>85</v>
       </c>
@@ -2515,7 +3663,7 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>87</v>
       </c>
@@ -2523,7 +3671,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>89</v>
       </c>
@@ -2531,7 +3679,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>90</v>
       </c>
@@ -2539,7 +3687,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>91</v>
       </c>
@@ -2547,7 +3695,7 @@
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>93</v>
       </c>
@@ -2555,7 +3703,7 @@
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>95</v>
       </c>
@@ -2563,7 +3711,7 @@
         <v>96</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
@@ -2571,7 +3719,7 @@
         <v>97</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>98</v>
       </c>
@@ -2579,7 +3727,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>100</v>
       </c>
@@ -2587,7 +3735,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>101</v>
       </c>
@@ -2595,7 +3743,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>102</v>
       </c>
@@ -2603,7 +3751,7 @@
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>104</v>
       </c>
@@ -2611,7 +3759,7 @@
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>106</v>
       </c>
@@ -2619,7 +3767,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>108</v>
       </c>
@@ -2627,7 +3775,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>109</v>
       </c>
@@ -2635,7 +3783,7 @@
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
@@ -2643,7 +3791,7 @@
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>113</v>
       </c>
@@ -2651,7 +3799,7 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>115</v>
       </c>
@@ -2659,7 +3807,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>117</v>
       </c>
@@ -2667,7 +3815,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>118</v>
       </c>
@@ -2675,7 +3823,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>119</v>
       </c>
@@ -2683,7 +3831,7 @@
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>121</v>
       </c>
@@ -2691,7 +3839,7 @@
         <v>122</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>123</v>
       </c>
@@ -2699,7 +3847,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>125</v>
       </c>
@@ -2707,7 +3855,7 @@
         <v>126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>127</v>
       </c>
@@ -2715,7 +3863,7 @@
         <v>122</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>128</v>
       </c>
@@ -2723,7 +3871,7 @@
         <v>122</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>129</v>
       </c>
@@ -2731,7 +3879,7 @@
         <v>122</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>130</v>
       </c>
@@ -2739,7 +3887,7 @@
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>119</v>
       </c>
@@ -2747,13 +3895,13 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B78" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>131</v>
       </c>
@@ -2761,7 +3909,7 @@
         <v>122</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>132</v>
       </c>
@@ -2769,7 +3917,7 @@
         <v>133</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>134</v>
       </c>
@@ -2777,7 +3925,7 @@
         <v>135</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>136</v>
       </c>
@@ -2785,7 +3933,7 @@
         <v>137</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>138</v>
       </c>
@@ -2793,7 +3941,7 @@
         <v>139</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>140</v>
       </c>
@@ -2801,7 +3949,7 @@
         <v>141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>142</v>
       </c>
@@ -2809,7 +3957,7 @@
         <v>143</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>144</v>
       </c>
@@ -2817,7 +3965,7 @@
         <v>145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>146</v>
       </c>
@@ -2825,7 +3973,7 @@
         <v>147</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>148</v>
       </c>
@@ -2833,7 +3981,7 @@
         <v>149</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>150</v>
       </c>
@@ -2841,7 +3989,7 @@
         <v>151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>152</v>
       </c>
@@ -2849,7 +3997,7 @@
         <v>153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>154</v>
       </c>
@@ -2857,7 +4005,7 @@
         <v>155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>156</v>
       </c>
@@ -2865,7 +4013,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>158</v>
       </c>
@@ -2873,7 +4021,7 @@
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row r="94" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>160</v>
       </c>
@@ -2881,7 +4029,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>162</v>
       </c>
@@ -2889,7 +4037,7 @@
         <v>163</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>164</v>
       </c>
@@ -2897,7 +4045,7 @@
         <v>165</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>166</v>
       </c>
@@ -2905,7 +4053,7 @@
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>168</v>
       </c>
@@ -2913,7 +4061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>169</v>
       </c>
@@ -2921,7 +4069,7 @@
         <v>170</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>171</v>
       </c>
@@ -2929,7 +4077,7 @@
         <v>172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>173</v>
       </c>
@@ -2937,7 +4085,7 @@
         <v>174</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>175</v>
       </c>
@@ -2945,7 +4093,7 @@
         <v>176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>177</v>
       </c>
@@ -2953,7 +4101,7 @@
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row r="104" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>179</v>
       </c>
@@ -2961,7 +4109,7 @@
         <v>180</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>181</v>
       </c>
@@ -2969,7 +4117,7 @@
         <v>180</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>182</v>
       </c>
@@ -2977,7 +4125,7 @@
         <v>183</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>184</v>
       </c>
@@ -2985,7 +4133,7 @@
         <v>185</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>186</v>
       </c>
@@ -2993,7 +4141,7 @@
         <v>187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>188</v>
       </c>
@@ -3001,7 +4149,7 @@
         <v>189</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>190</v>
       </c>
@@ -3009,7 +4157,7 @@
         <v>191</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>192</v>
       </c>
@@ -3017,7 +4165,7 @@
         <v>193</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>194</v>
       </c>
@@ -3025,7 +4173,7 @@
         <v>193</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>195</v>
       </c>
@@ -3033,7 +4181,7 @@
         <v>193</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row r="114" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>196</v>
       </c>
@@ -3041,7 +4189,7 @@
         <v>193</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row r="115" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>197</v>
       </c>
@@ -3049,7 +4197,7 @@
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row r="116" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>199</v>
       </c>
@@ -3057,7 +4205,7 @@
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row r="117" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>201</v>
       </c>
@@ -3065,7 +4213,7 @@
         <v>202</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+    <row r="118" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>203</v>
       </c>
@@ -3073,7 +4221,7 @@
         <v>204</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row r="119" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>205</v>
       </c>
@@ -3081,7 +4229,7 @@
         <v>206</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row r="120" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>207</v>
       </c>
@@ -3089,7 +4237,7 @@
         <v>208</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    <row r="121" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>209</v>
       </c>
@@ -3097,7 +4245,7 @@
         <v>210</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    <row r="122" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>211</v>
       </c>
@@ -3105,7 +4253,7 @@
         <v>212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    <row r="123" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>213</v>
       </c>
@@ -3113,7 +4261,7 @@
         <v>214</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row r="124" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>215</v>
       </c>
@@ -3121,1766 +4269,3828 @@
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row r="125" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B125" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+      <c r="B125" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    </row>
+    <row r="127" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+    </row>
+    <row r="136" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+    </row>
+    <row r="139" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+    </row>
+    <row r="143" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+    </row>
+    <row r="158" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+    </row>
+    <row r="164" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B172" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+        <v>297</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B173" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+        <v>299</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
-      <c r="A180" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
-      <c r="A181" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
-      <c r="A182" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
-      <c r="A183" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
-      <c r="A184" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
-      <c r="A185" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
-      <c r="A186" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
-      <c r="A187" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
-      <c r="A188" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
-      <c r="A189" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+    </row>
+    <row r="190" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+    </row>
+    <row r="193" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
-      <c r="A198" s="1" t="s">
+      <c r="B344" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
-      <c r="A199" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
-      <c r="A200" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B200" s="1" t="s">
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
-      <c r="A201" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
-      <c r="A202" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B202" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
-      <c r="A203" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B203" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
-      <c r="A204" s="1" t="s">
+      <c r="B397" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B204" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
-      <c r="A205" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B205" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
-      <c r="A206" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B206" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
-      <c r="A207" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
-      <c r="A208" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B208" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
-      <c r="A209" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
-      <c r="A210" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
-      <c r="A211" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
-      <c r="A212" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
-      <c r="A213" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
-      <c r="A214" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
-      <c r="A215" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
-      <c r="A216" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
-      <c r="A217" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
-      <c r="A218" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
-      <c r="A219" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
-      <c r="A220" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
-      <c r="A221" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
-      <c r="A222" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
-      <c r="A223" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
-      <c r="A224" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
-      <c r="A225" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
-      <c r="A226" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
-      <c r="A227" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
-      <c r="A228" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
-      <c r="A229" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
-      <c r="A230" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B230" s="1" t="s">
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
-      <c r="A231" s="1" t="s">
+      <c r="B506" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B231" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
-      <c r="A232" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B232" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
-      <c r="A233" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
-      <c r="A234" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
-      <c r="A235" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
-      <c r="A236" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
-      <c r="A237" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
-      <c r="A238" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
-      <c r="A239" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
-      <c r="A240" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
-      <c r="A241" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
-      <c r="A242" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
-      <c r="A243" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
-      <c r="A244" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
-      <c r="A245" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
-      <c r="A246" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
-      <c r="A247" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
-      <c r="A248" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
-      <c r="A249" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
-      <c r="A250" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
-      <c r="A251" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
-      <c r="A252" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
-      <c r="A253" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
-      <c r="A254" s="1" t="s">
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A556" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A558" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A559" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A560" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A571" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A576" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A579" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A580" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="B580" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
-      <c r="A255" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
-      <c r="A256" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
-      <c r="A257" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
-      <c r="A258" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
-      <c r="A259" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
-      <c r="A260" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
-      <c r="A261" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
-      <c r="A262" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
-      <c r="A263" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
-      <c r="A264" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
-      <c r="A265" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
-      <c r="A266" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
-      <c r="A267" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
-      <c r="A268" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
-      <c r="A269" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
-      <c r="A270" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
-      <c r="A271" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
-      <c r="A272" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
-      <c r="A273" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
-      <c r="A274" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
-      <c r="A275" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
-      <c r="A276" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
-      <c r="A277" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
-      <c r="A278" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
-      <c r="A279" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
-      <c r="A280" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
-      <c r="A281" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
-      <c r="A282" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
-      <c r="A283" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
-      <c r="A284" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
-      <c r="A285" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
-      <c r="A286" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
-      <c r="A287" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
-      <c r="A288" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
-      <c r="A289" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
-      <c r="A290" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
-      <c r="A291" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
-      <c r="A292" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
-      <c r="A293" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
-      <c r="A294" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B294" s="1" t="s">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A581" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A582" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
-      <c r="A295" s="1" t="s">
+      <c r="B582" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B295" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
-      <c r="A296" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
-      <c r="A297" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
-      <c r="A298" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
-      <c r="A299" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
-      <c r="A300" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
-      <c r="A301" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
-      <c r="A302" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
-      <c r="A303" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
-      <c r="A304" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
-      <c r="A305" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
-      <c r="A306" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B306" s="1" t="s">
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A583" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A584" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590" s="2" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
-      <c r="A307" s="1" t="s">
+      <c r="B590" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B307" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
-      <c r="A308" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
-      <c r="A309" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
-      <c r="A310" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
-      <c r="A311" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
-      <c r="A312" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
-      <c r="A313" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
-      <c r="A314" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
-      <c r="A315" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
-      <c r="A316" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
-      <c r="A317" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75">
-      <c r="A318" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
-      <c r="A319" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
-      <c r="A320" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
-      <c r="A321" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75">
-      <c r="A322" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75">
-      <c r="A323" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
-      <c r="A324" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
-      <c r="A325" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75">
-      <c r="A326" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75">
-      <c r="A327" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
-      <c r="A328" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75">
-      <c r="A329" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75">
-      <c r="A330" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
-      <c r="A331" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75">
-      <c r="A332" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75">
-      <c r="A333" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75">
-      <c r="A334" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75">
-      <c r="A335" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75">
-      <c r="A336" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75">
-      <c r="A337" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75">
-      <c r="A338" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75">
-      <c r="A339" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75">
-      <c r="A340" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75">
-      <c r="A341" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75">
-      <c r="A342" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75">
-      <c r="A343" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75">
-      <c r="A344" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75">
-      <c r="A345" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75">
-      <c r="A346" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75">
-      <c r="A347" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>586</v>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A593" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A594" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A595" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A596" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A598" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A599" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A600" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A601" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A602" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
